--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madin\IdeaProjects\Summer2019OnlineTestNGSeleniumProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85341EA-380C-465F-8C63-1608C38BC7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F8492-997E-4EAB-AD8B-018FE3D837D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{045E3AD1-B5BA-4670-B56F-9AB07681CEC4}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Color</t>
   </si>
   <si>
-    <t>test_plates_123</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>red</t>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>KZ001</t>
+  </si>
+  <si>
+    <t>Nazarbayev Sultik</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -455,16 +455,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>2020</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madin\IdeaProjects\Summer2019OnlineTestNGSeleniumProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F8492-997E-4EAB-AD8B-018FE3D837D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232BAF5A-D28D-41B4-8C90-2E863C74EE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{045E3AD1-B5BA-4670-B56F-9AB07681CEC4}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>KZ001</t>
   </si>
   <si>
-    <t>Nazarbayev Sultik</t>
+    <t>Adrien Richard</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -455,16 +455,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>2020</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
